--- a/Ricercatori.xlsx
+++ b/Ricercatori.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9930255fb6b94fd/Desktop/Codes/Python_Scripts/Scopus/Codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91808DCC-1A41-481E-B63E-096C61FFAA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{DE39AEF5-99F1-4EE1-9396-51122B0E2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7D702B5-5A0B-4DC9-BA8A-374652C4D121}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10B30802-BFBE-4921-A27B-C26604A3F5B3}"/>
+    <workbookView xWindow="3090" yWindow="7500" windowWidth="28800" windowHeight="12440" xr2:uid="{10B30802-BFBE-4921-A27B-C26604A3F5B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -2667,6 +2667,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2969,13 +2973,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808CD448-1733-4C09-AD90-88826A79E2CD}">
   <dimension ref="A1:I494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3032,7 @@
         <v>6603109764</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>7006562766</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>6603482331</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>7004543561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>57190078500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>7004108792</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>25631952600</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>57189762542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>35749601500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3204,7 +3212,7 @@
         <v>7007058761</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3224,7 +3232,7 @@
         <v>6603312160</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>57203685469</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3264,13 +3272,10 @@
         <v>7102393593</v>
       </c>
       <c r="G14">
-        <v>57711788100</v>
-      </c>
-      <c r="H14">
         <v>57225817355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>7003907398</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>6602760411</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>8925446500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>6701778735</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>7006686265</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>7004580169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3410,7 +3415,7 @@
         <v>7003440281</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>57204924659</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -3449,11 +3454,8 @@
       <c r="F23">
         <v>57188983714</v>
       </c>
-      <c r="G23">
-        <v>57210366461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>7006321956</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>7005836718</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>7005918034</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>57194264260</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>8882635900</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>57878885600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -3592,11 +3594,8 @@
       <c r="F30">
         <v>6603702826</v>
       </c>
-      <c r="G30">
-        <v>57217786181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>55751094200</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>23566345900</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>6701457631</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>12777276300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>22940263300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>7003274324</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>7005285421</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>6603264129</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>7003437143</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3793,13 +3792,10 @@
         <v>84</v>
       </c>
       <c r="F40">
-        <v>57220770106</v>
-      </c>
-      <c r="G40">
         <v>16749250400</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>6603129842</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>7102148172</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -3859,7 +3855,7 @@
         <v>7101968101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>6603872120</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>159</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>6602926802</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>7003405739</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>55700735900</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>36663506000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>7003331989</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -3998,11 +3994,8 @@
       <c r="F50">
         <v>7102418853</v>
       </c>
-      <c r="G50">
-        <v>57355224100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -4022,7 +4015,7 @@
         <v>56769297100</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -4042,7 +4035,7 @@
         <v>7003397524</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -4062,7 +4055,7 @@
         <v>35612435300</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -4082,7 +4075,7 @@
         <v>6603133002</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -4102,7 +4095,7 @@
         <v>8935834500</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>7004349638</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>6506698457</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -4162,7 +4155,7 @@
         <v>7005357674</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -4182,7 +4175,7 @@
         <v>57204346053</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>8885850300</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>197</v>
       </c>
@@ -4222,7 +4215,7 @@
         <v>7005031634</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -4245,7 +4238,7 @@
         <v>57226236308</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -4265,7 +4258,7 @@
         <v>7003577796</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -4285,7 +4278,7 @@
         <v>56067097300</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -4304,11 +4297,8 @@
       <c r="F65">
         <v>8246877300</v>
       </c>
-      <c r="G65">
-        <v>57937037300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -4328,7 +4318,7 @@
         <v>8601765300</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -4351,7 +4341,7 @@
         <v>56185828700</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -4371,7 +4361,7 @@
         <v>7006440463</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>217</v>
       </c>
@@ -4391,7 +4381,7 @@
         <v>7006356239</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>220</v>
       </c>
@@ -4414,7 +4404,7 @@
         <v>57966989900</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -4434,7 +4424,7 @@
         <v>16023875800</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -4454,7 +4444,7 @@
         <v>7005947086</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -4474,7 +4464,7 @@
         <v>55887386500</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -4494,7 +4484,7 @@
         <v>7003759319</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>234</v>
       </c>
@@ -4514,7 +4504,7 @@
         <v>9250873400</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>238</v>
       </c>
@@ -4534,7 +4524,7 @@
         <v>55767846100</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>241</v>
       </c>
@@ -4554,7 +4544,7 @@
         <v>25635470000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -4574,7 +4564,7 @@
         <v>7004121880</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -4594,7 +4584,7 @@
         <v>7004763674</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>249</v>
       </c>
@@ -4614,7 +4604,7 @@
         <v>57194756462</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -4634,7 +4624,7 @@
         <v>23570394600</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>253</v>
       </c>
@@ -4654,7 +4644,7 @@
         <v>7006549232</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>255</v>
       </c>
@@ -4674,7 +4664,7 @@
         <v>37053559900</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -4694,7 +4684,7 @@
         <v>6508349730</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -4714,7 +4704,7 @@
         <v>55274108300</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -4734,7 +4724,7 @@
         <v>56879994700</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -4754,7 +4744,7 @@
         <v>6602869551</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -4774,16 +4764,13 @@
         <v>56186790200</v>
       </c>
       <c r="G88">
-        <v>57204782687</v>
+        <v>57926455800</v>
       </c>
       <c r="H88">
-        <v>57926455800</v>
-      </c>
-      <c r="I88">
         <v>57917641000</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -4803,7 +4790,7 @@
         <v>7202033126</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -4823,7 +4810,7 @@
         <v>7005355725</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -4843,7 +4830,7 @@
         <v>6701662039</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -4863,7 +4850,7 @@
         <v>23488583800</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>279</v>
       </c>
@@ -4883,7 +4870,7 @@
         <v>6601960051</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -4903,7 +4890,7 @@
         <v>6701550516</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -4926,7 +4913,7 @@
         <v>57213692073</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -4946,7 +4933,7 @@
         <v>6602944858</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -4966,7 +4953,7 @@
         <v>56058952800</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -4986,7 +4973,7 @@
         <v>6603787932</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -5006,7 +4993,7 @@
         <v>57201959805</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -5029,7 +5016,7 @@
         <v>26643055600</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -5049,7 +5036,7 @@
         <v>6603831209</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>294</v>
       </c>
@@ -5069,7 +5056,7 @@
         <v>57212603569</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -5089,7 +5076,7 @@
         <v>6701783002</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>297</v>
       </c>
@@ -5112,7 +5099,7 @@
         <v>57217239870</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>299</v>
       </c>
@@ -5132,7 +5119,7 @@
         <v>7005849551</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -5152,7 +5139,7 @@
         <v>6701507742</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>304</v>
       </c>
@@ -5172,7 +5159,7 @@
         <v>7004251623</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>307</v>
       </c>
@@ -5192,7 +5179,7 @@
         <v>6602689313</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>310</v>
       </c>
@@ -5215,7 +5202,7 @@
         <v>57218093541</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -5235,7 +5222,7 @@
         <v>6602112403</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>313</v>
       </c>
@@ -5255,7 +5242,7 @@
         <v>57113498600</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>315</v>
       </c>
@@ -5275,7 +5262,7 @@
         <v>6602831941</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>317</v>
       </c>
@@ -5295,7 +5282,7 @@
         <v>7005866042</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>319</v>
       </c>
@@ -5315,7 +5302,7 @@
         <v>6602117937</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>321</v>
       </c>
@@ -5335,7 +5322,7 @@
         <v>8686581500</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>324</v>
       </c>
@@ -5355,7 +5342,7 @@
         <v>8695429500</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>325</v>
       </c>
@@ -5375,7 +5362,7 @@
         <v>55782226800</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>329</v>
       </c>
@@ -5395,7 +5382,7 @@
         <v>24764522100</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>330</v>
       </c>
@@ -5415,7 +5402,7 @@
         <v>56277210100</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>331</v>
       </c>
@@ -5441,7 +5428,7 @@
         <v>57581490600</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>331</v>
       </c>
@@ -5467,7 +5454,7 @@
         <v>57474559700</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>332</v>
       </c>
@@ -5493,7 +5480,7 @@
         <v>57808199100</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>334</v>
       </c>
@@ -5513,7 +5500,7 @@
         <v>8414753900</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>335</v>
       </c>
@@ -5533,7 +5520,7 @@
         <v>7006192748</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>336</v>
       </c>
@@ -5553,7 +5540,7 @@
         <v>57191135040</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>338</v>
       </c>
@@ -5573,7 +5560,7 @@
         <v>6602529256</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>339</v>
       </c>
@@ -5593,7 +5580,7 @@
         <v>6603166119</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>340</v>
       </c>
@@ -5613,7 +5600,7 @@
         <v>7004831940</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>340</v>
       </c>
@@ -5633,7 +5620,7 @@
         <v>12800035800</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>342</v>
       </c>
@@ -5653,7 +5640,7 @@
         <v>6603381435</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>343</v>
       </c>
@@ -5673,7 +5660,7 @@
         <v>57196952683</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>345</v>
       </c>
@@ -5693,7 +5680,7 @@
         <v>6602822427</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>347</v>
       </c>
@@ -5716,7 +5703,7 @@
         <v>14055975000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>349</v>
       </c>
@@ -5736,7 +5723,7 @@
         <v>6602193875</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>351</v>
       </c>
@@ -5756,7 +5743,7 @@
         <v>7005760175</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>352</v>
       </c>
@@ -5776,7 +5763,7 @@
         <v>6701399679</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>353</v>
       </c>
@@ -5796,7 +5783,7 @@
         <v>56233385700</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>355</v>
       </c>
@@ -5816,7 +5803,7 @@
         <v>55349877900</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>355</v>
       </c>
@@ -5836,7 +5823,7 @@
         <v>7007072408</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>358</v>
       </c>
@@ -5856,7 +5843,7 @@
         <v>6701313572</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>359</v>
       </c>
@@ -5876,7 +5863,7 @@
         <v>55503230900</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>361</v>
       </c>
@@ -5896,7 +5883,7 @@
         <v>14009933500</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>364</v>
       </c>
@@ -5916,7 +5903,7 @@
         <v>10144971000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>366</v>
       </c>
@@ -5936,7 +5923,7 @@
         <v>8878854800</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>368</v>
       </c>
@@ -5956,7 +5943,7 @@
         <v>6603129833</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>370</v>
       </c>
@@ -5979,7 +5966,7 @@
         <v>57220340213</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>372</v>
       </c>
@@ -6002,7 +5989,7 @@
         <v>57220437483</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -6025,7 +6012,7 @@
         <v>57218147815</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>374</v>
       </c>
@@ -6045,7 +6032,7 @@
         <v>7003811917</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>375</v>
       </c>
@@ -6065,7 +6052,7 @@
         <v>7006554507</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -6085,7 +6072,7 @@
         <v>7005458833</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>378</v>
       </c>
@@ -6111,7 +6098,7 @@
         <v>7004846549</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>379</v>
       </c>
@@ -6131,7 +6118,7 @@
         <v>25724310200</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>383</v>
       </c>
@@ -6151,7 +6138,7 @@
         <v>55965125000</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>384</v>
       </c>
@@ -6171,7 +6158,7 @@
         <v>7005207876</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>386</v>
       </c>
@@ -6191,7 +6178,7 @@
         <v>6603965626</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>387</v>
       </c>
@@ -6211,7 +6198,7 @@
         <v>6602717910</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>388</v>
       </c>
@@ -6231,7 +6218,7 @@
         <v>7006540424</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>390</v>
       </c>
@@ -6254,7 +6241,7 @@
         <v>57200000405</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>391</v>
       </c>
@@ -6274,7 +6261,7 @@
         <v>23027478400</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>393</v>
       </c>
@@ -6294,7 +6281,7 @@
         <v>6701460242</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>394</v>
       </c>
@@ -6314,7 +6301,7 @@
         <v>56355083000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>395</v>
       </c>
@@ -6334,7 +6321,7 @@
         <v>7003631094</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>396</v>
       </c>
@@ -6354,7 +6341,7 @@
         <v>35268296300</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>397</v>
       </c>
@@ -6373,11 +6360,8 @@
       <c r="F165">
         <v>7005409488</v>
       </c>
-      <c r="G165">
-        <v>57418332000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>399</v>
       </c>
@@ -6397,7 +6381,7 @@
         <v>6603075867</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>400</v>
       </c>
@@ -6417,7 +6401,7 @@
         <v>35564036000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>401</v>
       </c>
@@ -6440,7 +6424,7 @@
         <v>7005174853</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>402</v>
       </c>
@@ -6460,7 +6444,7 @@
         <v>25640950000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>403</v>
       </c>
@@ -6477,13 +6461,13 @@
         <v>16</v>
       </c>
       <c r="F170">
-        <v>55512984500</v>
+        <v>8702651200</v>
       </c>
       <c r="G170">
         <v>57220503154</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -6503,7 +6487,7 @@
         <v>55899227700</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -6523,7 +6507,7 @@
         <v>7102793546</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>410</v>
       </c>
@@ -6543,7 +6527,7 @@
         <v>6602454002</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>411</v>
       </c>
@@ -6563,7 +6547,7 @@
         <v>6602193344</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>413</v>
       </c>
@@ -6583,7 +6567,7 @@
         <v>6602378464</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>415</v>
       </c>
@@ -6606,7 +6590,7 @@
         <v>57226210754</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>416</v>
       </c>
@@ -6626,7 +6610,7 @@
         <v>6603891334</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>418</v>
       </c>
@@ -6646,7 +6630,7 @@
         <v>7004277605</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>421</v>
       </c>
@@ -6666,7 +6650,7 @@
         <v>6603465620</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>422</v>
       </c>
@@ -6686,7 +6670,7 @@
         <v>23495777500</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>425</v>
       </c>
@@ -6709,7 +6693,7 @@
         <v>57213862950</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>71</v>
       </c>
@@ -6729,7 +6713,7 @@
         <v>56919461700</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>426</v>
       </c>
@@ -6749,7 +6733,7 @@
         <v>23488580400</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>427</v>
       </c>
@@ -6769,7 +6753,7 @@
         <v>6603230744</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>428</v>
       </c>
@@ -6789,7 +6773,7 @@
         <v>6701524019</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>430</v>
       </c>
@@ -6809,7 +6793,7 @@
         <v>56235640900</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>431</v>
       </c>
@@ -6829,7 +6813,7 @@
         <v>7101807658</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>432</v>
       </c>
@@ -6849,7 +6833,7 @@
         <v>54386876600</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -6869,7 +6853,7 @@
         <v>6602341661</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>435</v>
       </c>
@@ -6889,7 +6873,7 @@
         <v>8382835600</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>436</v>
       </c>
@@ -6909,7 +6893,7 @@
         <v>6603375291</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>437</v>
       </c>
@@ -6929,7 +6913,7 @@
         <v>35083472600</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>439</v>
       </c>
@@ -6949,7 +6933,7 @@
         <v>7003765698</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>441</v>
       </c>
@@ -6969,7 +6953,7 @@
         <v>6601953231</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>443</v>
       </c>
@@ -6989,7 +6973,7 @@
         <v>14056325900</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>444</v>
       </c>
@@ -7009,7 +6993,7 @@
         <v>57225085132</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>445</v>
       </c>
@@ -7029,7 +7013,7 @@
         <v>36162372300</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>446</v>
       </c>
@@ -7049,7 +7033,7 @@
         <v>54420232600</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>450</v>
       </c>
@@ -7069,7 +7053,7 @@
         <v>8400666000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>451</v>
       </c>
@@ -7089,7 +7073,7 @@
         <v>55482375800</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>453</v>
       </c>
@@ -7112,7 +7096,7 @@
         <v>57516230200</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>454</v>
       </c>
@@ -7132,7 +7116,7 @@
         <v>7006768840</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>455</v>
       </c>
@@ -7152,7 +7136,7 @@
         <v>6508142034</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>457</v>
       </c>
@@ -7172,7 +7156,7 @@
         <v>7005782335</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>458</v>
       </c>
@@ -7192,7 +7176,7 @@
         <v>35428525600</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>460</v>
       </c>
@@ -7212,7 +7196,7 @@
         <v>7005847583</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>461</v>
       </c>
@@ -7232,7 +7216,7 @@
         <v>6508250400</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>462</v>
       </c>
@@ -7252,7 +7236,7 @@
         <v>35332599700</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>464</v>
       </c>
@@ -7272,7 +7256,7 @@
         <v>16030951900</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>466</v>
       </c>
@@ -7292,7 +7276,7 @@
         <v>7007012358</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>466</v>
       </c>
@@ -7312,7 +7296,7 @@
         <v>6603982064</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>467</v>
       </c>
@@ -7332,7 +7316,7 @@
         <v>6603834833</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>469</v>
       </c>
@@ -7352,7 +7336,7 @@
         <v>7801460904</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>471</v>
       </c>
@@ -7372,7 +7356,7 @@
         <v>24080667200</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>472</v>
       </c>
@@ -7395,7 +7379,7 @@
         <v>58024755300</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>472</v>
       </c>
@@ -7415,7 +7399,7 @@
         <v>9336915000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>473</v>
       </c>
@@ -7435,7 +7419,7 @@
         <v>7003460595</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>474</v>
       </c>
@@ -7455,7 +7439,7 @@
         <v>9940135200</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>475</v>
       </c>
@@ -7475,7 +7459,7 @@
         <v>7003774025</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -7498,7 +7482,7 @@
         <v>57952997700</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>478</v>
       </c>
@@ -7518,7 +7502,7 @@
         <v>27967845800</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>481</v>
       </c>
@@ -7538,7 +7522,7 @@
         <v>7101813953</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>482</v>
       </c>
@@ -7561,7 +7545,7 @@
         <v>57609771600</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>484</v>
       </c>
@@ -7581,7 +7565,7 @@
         <v>55149882300</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>485</v>
       </c>
@@ -7601,7 +7585,7 @@
         <v>6506831847</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -7621,7 +7605,7 @@
         <v>35581550500</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>419</v>
       </c>
@@ -7644,7 +7628,7 @@
         <v>7005978849</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>489</v>
       </c>
@@ -7664,7 +7648,7 @@
         <v>6603965116</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>490</v>
       </c>
@@ -7684,7 +7668,7 @@
         <v>25634175200</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>494</v>
       </c>
@@ -7704,7 +7688,7 @@
         <v>56228800100</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>495</v>
       </c>
@@ -7724,7 +7708,7 @@
         <v>7005271016</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -7744,7 +7728,7 @@
         <v>6602099353</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>497</v>
       </c>
@@ -7764,7 +7748,7 @@
         <v>7006785543</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>498</v>
       </c>
@@ -7784,7 +7768,7 @@
         <v>7101890218</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -7804,7 +7788,7 @@
         <v>14065322000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -7824,7 +7808,7 @@
         <v>23009618900</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>502</v>
       </c>
@@ -7844,7 +7828,7 @@
         <v>7003877552</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>503</v>
       </c>
@@ -7863,11 +7847,8 @@
       <c r="F238">
         <v>57357948300</v>
       </c>
-      <c r="G238">
-        <v>57494602100</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>506</v>
       </c>
@@ -7887,7 +7868,7 @@
         <v>7004647540</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>507</v>
       </c>
@@ -7907,7 +7888,7 @@
         <v>16242013300</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>507</v>
       </c>
@@ -7927,7 +7908,7 @@
         <v>7005986602</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>508</v>
       </c>
@@ -7947,7 +7928,7 @@
         <v>7004309679</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>509</v>
       </c>
@@ -7967,7 +7948,7 @@
         <v>6602391103</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>510</v>
       </c>
@@ -7987,7 +7968,7 @@
         <v>56962725100</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>514</v>
       </c>
@@ -8007,7 +7988,7 @@
         <v>7102675596</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>516</v>
       </c>
@@ -8027,7 +8008,7 @@
         <v>57192908687</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>517</v>
       </c>
@@ -8047,7 +8028,7 @@
         <v>7102366223</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>519</v>
       </c>
@@ -8064,13 +8045,10 @@
         <v>289</v>
       </c>
       <c r="F248">
-        <v>57225305413</v>
-      </c>
-      <c r="G248">
         <v>55916011800</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>520</v>
       </c>
@@ -8090,7 +8068,7 @@
         <v>6506978724</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>522</v>
       </c>
@@ -8110,7 +8088,7 @@
         <v>57195300147</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>526</v>
       </c>
@@ -8130,7 +8108,7 @@
         <v>7003568333</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>527</v>
       </c>
@@ -8150,7 +8128,7 @@
         <v>6701460872</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>528</v>
       </c>
@@ -8169,11 +8147,8 @@
       <c r="F253">
         <v>7005080792</v>
       </c>
-      <c r="G253">
-        <v>57830672600</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>529</v>
       </c>
@@ -8193,7 +8168,7 @@
         <v>55572871400</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>530</v>
       </c>
@@ -8213,7 +8188,7 @@
         <v>7003455495</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>531</v>
       </c>
@@ -8233,7 +8208,7 @@
         <v>57209103213</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>532</v>
       </c>
@@ -8253,7 +8228,7 @@
         <v>6602875804</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>534</v>
       </c>
@@ -8273,7 +8248,7 @@
         <v>8414754400</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>535</v>
       </c>
@@ -8293,7 +8268,7 @@
         <v>22938478500</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>537</v>
       </c>
@@ -8313,7 +8288,7 @@
         <v>57197407377</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>538</v>
       </c>
@@ -8333,7 +8308,7 @@
         <v>6604021231</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>540</v>
       </c>
@@ -8359,7 +8334,7 @@
         <v>57824620800</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>540</v>
       </c>
@@ -8376,7 +8351,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>543</v>
       </c>
@@ -8396,7 +8371,7 @@
         <v>57138500200</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>545</v>
       </c>
@@ -8416,7 +8391,7 @@
         <v>57211220608</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>547</v>
       </c>
@@ -8436,7 +8411,7 @@
         <v>6601937738</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>550</v>
       </c>
@@ -8456,7 +8431,7 @@
         <v>37003772000</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>552</v>
       </c>
@@ -8476,7 +8451,7 @@
         <v>7004160508</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>554</v>
       </c>
@@ -8496,7 +8471,7 @@
         <v>57191518014</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>555</v>
       </c>
@@ -8516,7 +8491,7 @@
         <v>7005585720</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>556</v>
       </c>
@@ -8536,7 +8511,7 @@
         <v>7005569979</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>557</v>
       </c>
@@ -8556,7 +8531,7 @@
         <v>57200497751</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>561</v>
       </c>
@@ -8575,11 +8550,8 @@
       <c r="F273">
         <v>7006575737</v>
       </c>
-      <c r="G273">
-        <v>57210095889</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>563</v>
       </c>
@@ -8599,7 +8571,7 @@
         <v>6701415171</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>565</v>
       </c>
@@ -8619,7 +8591,7 @@
         <v>7003525518</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>567</v>
       </c>
@@ -8639,7 +8611,7 @@
         <v>7003344333</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>569</v>
       </c>
@@ -8659,7 +8631,7 @@
         <v>6603315771</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>570</v>
       </c>
@@ -8679,7 +8651,7 @@
         <v>6603470821</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>571</v>
       </c>
@@ -8699,7 +8671,7 @@
         <v>6507574694</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>572</v>
       </c>
@@ -8719,7 +8691,7 @@
         <v>7006247089</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>573</v>
       </c>
@@ -8739,7 +8711,7 @@
         <v>7005275017</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>574</v>
       </c>
@@ -8759,7 +8731,7 @@
         <v>7801520552</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>575</v>
       </c>
@@ -8779,7 +8751,7 @@
         <v>35594020100</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>577</v>
       </c>
@@ -8802,7 +8774,7 @@
         <v>57563348100</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>578</v>
       </c>
@@ -8822,7 +8794,7 @@
         <v>6603010786</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>580</v>
       </c>
@@ -8842,7 +8814,7 @@
         <v>26025250300</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>581</v>
       </c>
@@ -8862,7 +8834,7 @@
         <v>6603231497</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>582</v>
       </c>
@@ -8882,7 +8854,7 @@
         <v>6602509850</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>583</v>
       </c>
@@ -8902,7 +8874,7 @@
         <v>7006313086</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>584</v>
       </c>
@@ -8922,7 +8894,7 @@
         <v>7004080557</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>584</v>
       </c>
@@ -8942,7 +8914,7 @@
         <v>8384067900</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>589</v>
       </c>
@@ -8962,7 +8934,7 @@
         <v>55541124400</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>590</v>
       </c>
@@ -8982,7 +8954,7 @@
         <v>7006573765</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>591</v>
       </c>
@@ -9002,7 +8974,7 @@
         <v>7005869258</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>593</v>
       </c>
@@ -9022,7 +8994,7 @@
         <v>55782338600</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>594</v>
       </c>
@@ -9042,7 +9014,7 @@
         <v>6602987513</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>596</v>
       </c>
@@ -9062,7 +9034,7 @@
         <v>57192332998</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>597</v>
       </c>
@@ -9081,11 +9053,8 @@
       <c r="F298">
         <v>57218505830</v>
       </c>
-      <c r="G298">
-        <v>57917226400</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>598</v>
       </c>
@@ -9104,11 +9073,8 @@
       <c r="F299">
         <v>7003325947</v>
       </c>
-      <c r="G299">
-        <v>57789443000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -9128,7 +9094,7 @@
         <v>7005897829</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>601</v>
       </c>
@@ -9148,7 +9114,7 @@
         <v>7006953259</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>602</v>
       </c>
@@ -9168,7 +9134,7 @@
         <v>55614565200</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -9188,7 +9154,7 @@
         <v>57201980080</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>605</v>
       </c>
@@ -9208,7 +9174,7 @@
         <v>57203815167</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>607</v>
       </c>
@@ -9228,7 +9194,7 @@
         <v>24485147200</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>609</v>
       </c>
@@ -9248,7 +9214,7 @@
         <v>6602525830</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -9268,7 +9234,7 @@
         <v>7004822308</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>611</v>
       </c>
@@ -9288,7 +9254,7 @@
         <v>57031509000</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -9308,7 +9274,7 @@
         <v>48861884800</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -9328,7 +9294,7 @@
         <v>9244356700</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -9348,7 +9314,7 @@
         <v>35463886700</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -9368,7 +9334,7 @@
         <v>57217782747</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>619</v>
       </c>
@@ -9388,7 +9354,7 @@
         <v>8539190900</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>620</v>
       </c>
@@ -9408,7 +9374,7 @@
         <v>17735962900</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>620</v>
       </c>
@@ -9428,7 +9394,7 @@
         <v>6701908201</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>621</v>
       </c>
@@ -9448,7 +9414,7 @@
         <v>56968191000</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>622</v>
       </c>
@@ -9468,7 +9434,7 @@
         <v>14007636400</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>623</v>
       </c>
@@ -9488,7 +9454,7 @@
         <v>6602597851</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>625</v>
       </c>
@@ -9508,7 +9474,7 @@
         <v>7003869202</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>627</v>
       </c>
@@ -9528,7 +9494,7 @@
         <v>35548225900</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>629</v>
       </c>
@@ -9548,7 +9514,7 @@
         <v>6701353251</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>631</v>
       </c>
@@ -9568,7 +9534,7 @@
         <v>25646607800</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>634</v>
       </c>
@@ -9588,7 +9554,7 @@
         <v>56200058700</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>636</v>
       </c>
@@ -9608,7 +9574,7 @@
         <v>6602583854</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>637</v>
       </c>
@@ -9628,7 +9594,7 @@
         <v>55956570900</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>638</v>
       </c>
@@ -9648,7 +9614,7 @@
         <v>35577677600</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>640</v>
       </c>
@@ -9668,7 +9634,7 @@
         <v>55177172900</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>642</v>
       </c>
@@ -9688,7 +9654,7 @@
         <v>57202627228</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>643</v>
       </c>
@@ -9708,7 +9674,7 @@
         <v>7006464231</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>645</v>
       </c>
@@ -9728,7 +9694,7 @@
         <v>35885905600</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>646</v>
       </c>
@@ -9748,7 +9714,7 @@
         <v>6603698253</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>647</v>
       </c>
@@ -9768,7 +9734,7 @@
         <v>7003711105</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>648</v>
       </c>
@@ -9788,7 +9754,7 @@
         <v>6601995197</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>649</v>
       </c>
@@ -9808,7 +9774,7 @@
         <v>6602941489</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>650</v>
       </c>
@@ -9828,7 +9794,7 @@
         <v>14052533300</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>651</v>
       </c>
@@ -9848,7 +9814,7 @@
         <v>12767233800</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>652</v>
       </c>
@@ -9867,11 +9833,8 @@
       <c r="F337">
         <v>55999845600</v>
       </c>
-      <c r="G337">
-        <v>25028800800</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>654</v>
       </c>
@@ -9891,7 +9854,7 @@
         <v>7003629588</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>655</v>
       </c>
@@ -9911,7 +9874,7 @@
         <v>8894676100</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>657</v>
       </c>
@@ -9931,7 +9894,7 @@
         <v>7003399915</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>658</v>
       </c>
@@ -9951,7 +9914,7 @@
         <v>6602131505</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>659</v>
       </c>
@@ -9971,7 +9934,7 @@
         <v>16152905200</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>661</v>
       </c>
@@ -9991,7 +9954,7 @@
         <v>6602110238</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>663</v>
       </c>
@@ -10011,7 +9974,7 @@
         <v>7004555504</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>665</v>
       </c>
@@ -10031,7 +9994,7 @@
         <v>55396899600</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>666</v>
       </c>
@@ -10054,7 +10017,7 @@
         <v>58010411600</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>667</v>
       </c>
@@ -10074,7 +10037,7 @@
         <v>6603092607</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>668</v>
       </c>
@@ -10094,7 +10057,7 @@
         <v>7004093428</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>669</v>
       </c>
@@ -10114,7 +10077,7 @@
         <v>35316450500</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>670</v>
       </c>
@@ -10134,7 +10097,7 @@
         <v>6602123176</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>672</v>
       </c>
@@ -10154,7 +10117,7 @@
         <v>6701605344</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>673</v>
       </c>
@@ -10174,7 +10137,7 @@
         <v>7101651181</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>675</v>
       </c>
@@ -10194,7 +10157,7 @@
         <v>7003958596</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>676</v>
       </c>
@@ -10214,7 +10177,7 @@
         <v>57211363642</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>677</v>
       </c>
@@ -10234,7 +10197,7 @@
         <v>6701821326</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>678</v>
       </c>
@@ -10254,7 +10217,7 @@
         <v>6602684214</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>680</v>
       </c>
@@ -10274,7 +10237,7 @@
         <v>8092459800</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>681</v>
       </c>
@@ -10294,7 +10257,7 @@
         <v>24178705000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>681</v>
       </c>
@@ -10314,7 +10277,7 @@
         <v>57205131984</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>685</v>
       </c>
@@ -10334,7 +10297,7 @@
         <v>55770980700</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>686</v>
       </c>
@@ -10354,7 +10317,7 @@
         <v>23103590900</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>688</v>
       </c>
@@ -10374,7 +10337,7 @@
         <v>56351923000</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>691</v>
       </c>
@@ -10394,7 +10357,7 @@
         <v>23992544200</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>691</v>
       </c>
@@ -10414,7 +10377,7 @@
         <v>7006600985</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>692</v>
       </c>
@@ -10434,7 +10397,7 @@
         <v>7005516421</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>693</v>
       </c>
@@ -10457,7 +10420,7 @@
         <v>57217603515</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>694</v>
       </c>
@@ -10477,7 +10440,7 @@
         <v>6602080836</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>695</v>
       </c>
@@ -10497,7 +10460,7 @@
         <v>56223389400</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>696</v>
       </c>
@@ -10517,7 +10480,7 @@
         <v>6602100587</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>697</v>
       </c>
@@ -10537,7 +10500,7 @@
         <v>6603730863</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>698</v>
       </c>
@@ -10557,7 +10520,7 @@
         <v>7102436227</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>698</v>
       </c>
@@ -10577,7 +10540,7 @@
         <v>7103409043</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>700</v>
       </c>
@@ -10600,7 +10563,7 @@
         <v>22836118300</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>702</v>
       </c>
@@ -10620,7 +10583,7 @@
         <v>6701807889</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>704</v>
       </c>
@@ -10640,7 +10603,7 @@
         <v>7003874268</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>705</v>
       </c>
@@ -10660,7 +10623,7 @@
         <v>56283401600</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>707</v>
       </c>
@@ -10680,7 +10643,7 @@
         <v>56313339200</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>708</v>
       </c>
@@ -10700,7 +10663,7 @@
         <v>57199144875</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>709</v>
       </c>
@@ -10720,7 +10683,7 @@
         <v>56962752000</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>710</v>
       </c>
@@ -10740,7 +10703,7 @@
         <v>26531799200</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>711</v>
       </c>
@@ -10760,7 +10723,7 @@
         <v>23502541500</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>713</v>
       </c>
@@ -10786,7 +10749,7 @@
         <v>58027886600</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>715</v>
       </c>
@@ -10806,7 +10769,7 @@
         <v>55508871400</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>717</v>
       </c>
@@ -10826,7 +10789,7 @@
         <v>56211942400</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>719</v>
       </c>
@@ -10846,7 +10809,7 @@
         <v>7005158667</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>635</v>
       </c>
@@ -10866,7 +10829,7 @@
         <v>7005935570</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>721</v>
       </c>
@@ -10889,7 +10852,7 @@
         <v>57191402580</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>73</v>
       </c>
@@ -10909,7 +10872,7 @@
         <v>22954462900</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>724</v>
       </c>
@@ -10932,7 +10895,7 @@
         <v>7202171141</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>724</v>
       </c>
@@ -10955,7 +10918,7 @@
         <v>57219653270</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>724</v>
       </c>
@@ -10978,7 +10941,7 @@
         <v>57201746955</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>724</v>
       </c>
@@ -10998,7 +10961,7 @@
         <v>55482327600</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>726</v>
       </c>
@@ -11018,7 +10981,7 @@
         <v>7004054239</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>727</v>
       </c>
@@ -11038,7 +11001,7 @@
         <v>7005506310</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>728</v>
       </c>
@@ -11058,7 +11021,7 @@
         <v>7003445858</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>306</v>
       </c>
@@ -11078,7 +11041,7 @@
         <v>55408195100</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>730</v>
       </c>
@@ -11098,7 +11061,7 @@
         <v>6603455372</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>731</v>
       </c>
@@ -11118,7 +11081,7 @@
         <v>22959201000</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>732</v>
       </c>
@@ -11138,7 +11101,7 @@
         <v>23489841900</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>733</v>
       </c>
@@ -11158,7 +11121,7 @@
         <v>7004450805</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>735</v>
       </c>
@@ -11181,7 +11144,7 @@
         <v>57521146000</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>737</v>
       </c>
@@ -11201,7 +11164,7 @@
         <v>57218240358</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>21</v>
       </c>
@@ -11221,7 +11184,7 @@
         <v>26022570500</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>740</v>
       </c>
@@ -11241,7 +11204,7 @@
         <v>6701388288</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>741</v>
       </c>
@@ -11261,7 +11224,7 @@
         <v>8561128500</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>742</v>
       </c>
@@ -11281,7 +11244,7 @@
         <v>57209097150</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>743</v>
       </c>
@@ -11304,7 +11267,7 @@
         <v>57776530500</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>744</v>
       </c>
@@ -11324,7 +11287,7 @@
         <v>6603653886</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>745</v>
       </c>
@@ -11344,7 +11307,7 @@
         <v>55220821900</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>747</v>
       </c>
@@ -11364,7 +11327,7 @@
         <v>7006092638</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>749</v>
       </c>
@@ -11384,7 +11347,7 @@
         <v>7004578350</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>750</v>
       </c>
@@ -11404,7 +11367,7 @@
         <v>9245843300</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>752</v>
       </c>
@@ -11424,7 +11387,7 @@
         <v>7005628753</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>754</v>
       </c>
@@ -11444,7 +11407,7 @@
         <v>36461700300</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>756</v>
       </c>
@@ -11464,7 +11427,7 @@
         <v>9737246300</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>758</v>
       </c>
@@ -11484,7 +11447,7 @@
         <v>7004140727</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>760</v>
       </c>
@@ -11504,7 +11467,7 @@
         <v>8222069100</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>761</v>
       </c>
@@ -11533,7 +11496,7 @@
         <v>7102799259</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>762</v>
       </c>
@@ -11553,7 +11516,7 @@
         <v>22954512900</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>763</v>
       </c>
@@ -11573,7 +11536,7 @@
         <v>7005376498</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>764</v>
       </c>
@@ -11593,7 +11556,7 @@
         <v>6508243077</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>765</v>
       </c>
@@ -11613,7 +11576,7 @@
         <v>7801352865</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>767</v>
       </c>
@@ -11633,7 +11596,7 @@
         <v>6603863432</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>768</v>
       </c>
@@ -11653,7 +11616,7 @@
         <v>6602514658</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>769</v>
       </c>
@@ -11676,7 +11639,7 @@
         <v>35463202600</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>771</v>
       </c>
@@ -11696,7 +11659,7 @@
         <v>6603384239</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>772</v>
       </c>
@@ -11716,7 +11679,7 @@
         <v>7003978878</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>773</v>
       </c>
@@ -11736,7 +11699,7 @@
         <v>57204914173</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>774</v>
       </c>
@@ -11756,7 +11719,7 @@
         <v>57194757593</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>775</v>
       </c>
@@ -11776,7 +11739,7 @@
         <v>7004632908</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>776</v>
       </c>
@@ -11796,7 +11759,7 @@
         <v>6603960061</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>777</v>
       </c>
@@ -11825,7 +11788,7 @@
         <v>57253545500</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>778</v>
       </c>
@@ -11845,7 +11808,7 @@
         <v>35965821500</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>779</v>
       </c>
@@ -11865,7 +11828,7 @@
         <v>57191632443</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>780</v>
       </c>
@@ -11885,7 +11848,7 @@
         <v>19934483100</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>781</v>
       </c>
@@ -11905,7 +11868,7 @@
         <v>7003584290</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>782</v>
       </c>
@@ -11925,7 +11888,7 @@
         <v>6603901988</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>783</v>
       </c>
@@ -11945,7 +11908,7 @@
         <v>6603820264</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>784</v>
       </c>
@@ -11965,7 +11928,7 @@
         <v>16481471200</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>786</v>
       </c>
@@ -11985,7 +11948,7 @@
         <v>55649570438</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>788</v>
       </c>
@@ -12005,7 +11968,7 @@
         <v>6603680252</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>789</v>
       </c>
@@ -12025,7 +11988,7 @@
         <v>7801558049</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>790</v>
       </c>
@@ -12045,7 +12008,7 @@
         <v>56457882100</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>791</v>
       </c>
@@ -12065,7 +12028,7 @@
         <v>57191664999</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>793</v>
       </c>
@@ -12085,7 +12048,7 @@
         <v>57218600881</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>794</v>
       </c>
@@ -12105,7 +12068,7 @@
         <v>57197884652</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>795</v>
       </c>
@@ -12125,7 +12088,7 @@
         <v>6602607015</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>797</v>
       </c>
@@ -12145,7 +12108,7 @@
         <v>6603885364</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>798</v>
       </c>
@@ -12165,7 +12128,7 @@
         <v>8561129100</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>799</v>
       </c>
@@ -12185,7 +12148,7 @@
         <v>6508049573</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>800</v>
       </c>
@@ -12205,7 +12168,7 @@
         <v>6603794277</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>801</v>
       </c>
@@ -12225,7 +12188,7 @@
         <v>6701809708</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>803</v>
       </c>
@@ -12248,7 +12211,7 @@
         <v>56938299600</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>803</v>
       </c>
@@ -12268,7 +12231,7 @@
         <v>7004234835</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>805</v>
       </c>
@@ -12288,7 +12251,7 @@
         <v>7003885801</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>806</v>
       </c>
@@ -12308,7 +12271,7 @@
         <v>7004238232</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>808</v>
       </c>
@@ -12328,7 +12291,7 @@
         <v>6701493704</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>810</v>
       </c>
@@ -12348,7 +12311,7 @@
         <v>55431724700</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>812</v>
       </c>
@@ -12368,7 +12331,7 @@
         <v>22137067800</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>813</v>
       </c>
@@ -12388,7 +12351,7 @@
         <v>6602811330</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>815</v>
       </c>
@@ -12408,7 +12371,7 @@
         <v>6603027243</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>816</v>
       </c>
@@ -12428,7 +12391,7 @@
         <v>7004145763</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>817</v>
       </c>
@@ -12448,7 +12411,7 @@
         <v>6508067041</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>818</v>
       </c>
@@ -12468,7 +12431,7 @@
         <v>7005488006</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>820</v>
       </c>
@@ -12488,7 +12451,7 @@
         <v>6701736931</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>821</v>
       </c>
@@ -12508,7 +12471,7 @@
         <v>6701806931</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>822</v>
       </c>
@@ -12528,7 +12491,7 @@
         <v>6701823995</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>822</v>
       </c>
@@ -12548,7 +12511,7 @@
         <v>35768378300</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>823</v>
       </c>
@@ -12568,7 +12531,7 @@
         <v>6701729184</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>825</v>
       </c>
@@ -12588,7 +12551,7 @@
         <v>6603262549</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>827</v>
       </c>
@@ -12608,7 +12571,7 @@
         <v>56888869800</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>828</v>
       </c>
@@ -12628,7 +12591,7 @@
         <v>55198663000</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>829</v>
       </c>
@@ -12648,7 +12611,7 @@
         <v>6603313153</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>830</v>
       </c>
@@ -12671,7 +12634,7 @@
         <v>57212270726</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>831</v>
       </c>
@@ -12697,7 +12660,7 @@
         <v>57732499400</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>831</v>
       </c>
@@ -12720,7 +12683,7 @@
         <v>58026754800</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>833</v>
       </c>
@@ -12740,7 +12703,7 @@
         <v>6603046267</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>834</v>
       </c>
@@ -12760,7 +12723,7 @@
         <v>6701785391</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>835</v>
       </c>
@@ -12780,7 +12743,7 @@
         <v>7101605857</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>836</v>
       </c>
@@ -12800,7 +12763,7 @@
         <v>6602874079</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>837</v>
       </c>
@@ -12820,7 +12783,7 @@
         <v>6602920971</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>838</v>
       </c>
@@ -12840,7 +12803,7 @@
         <v>24438560200</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>839</v>
       </c>
@@ -12860,7 +12823,7 @@
         <v>8419685400</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>840</v>
       </c>
@@ -12883,7 +12846,7 @@
         <v>57342906800</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>841</v>
       </c>
@@ -12903,7 +12866,7 @@
         <v>7102086955</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>842</v>
       </c>
@@ -12923,7 +12886,7 @@
         <v>6506463691</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>843</v>
       </c>
@@ -12943,7 +12906,7 @@
         <v>7004580824</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>844</v>
       </c>
@@ -12963,7 +12926,7 @@
         <v>6701771607</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>845</v>
       </c>
@@ -12983,7 +12946,7 @@
         <v>35597997300</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>847</v>
       </c>
@@ -13003,7 +12966,7 @@
         <v>9333996100</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>848</v>
       </c>
@@ -13023,7 +12986,7 @@
         <v>55207355000</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>849</v>
       </c>
@@ -13043,7 +13006,7 @@
         <v>6602350967</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>851</v>
       </c>
@@ -13063,7 +13026,7 @@
         <v>7004247288</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>853</v>
       </c>
